--- a/licenser-server/src/test/resources/fixtures/valid.xlsx
+++ b/licenser-server/src/test/resources/fixtures/valid.xlsx
@@ -11,34 +11,33 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>access_code</t>
+    <t xml:space="preserve">access_code</t>
   </si>
   <si>
-    <t>level</t>
+    <t xml:space="preserve">level</t>
   </si>
   <si>
-    <t>price</t>
+    <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t>duration</t>
+    <t xml:space="preserve">duration</t>
   </si>
   <si>
-    <t>is_activated</t>
+    <t xml:space="preserve">test1</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t xml:space="preserve">test2</t>
   </si>
 </sst>
 </file>
@@ -46,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -135,15 +134,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -159,13 +158,10 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -179,25 +175,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>12312</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>30</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
